--- a/Civilworks cost/RADP Preparations/Sunamgonj/Revised With Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Revised With Appendix/Projecttion_input.xlsx
@@ -2233,7 +2233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2745,6 +2745,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2757,24 +2769,22 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2945,7 +2955,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3086,7 +3095,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3227,7 +3235,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3368,7 +3375,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3509,7 +3515,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3650,7 +3655,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14170,13 +14174,13 @@
       <c r="Q48" s="25"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="192" t="s">
+      <c r="A49" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="192"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="192"/>
-      <c r="E49" s="192"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
       <c r="F49" s="38">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -23161,7 +23165,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="56.25">
+    <row r="138" spans="1:14" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -25441,13 +25445,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="191"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -27480,7 +27484,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:M61"/>
+      <selection activeCell="C50" sqref="C50:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29463,38 +29467,38 @@
       <c r="A50" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="189" t="s">
         <v>592</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="197">
+      <c r="D50" s="198">
         <v>0.24</v>
       </c>
-      <c r="E50" s="198">
+      <c r="E50" s="199">
         <v>335.53</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="200">
         <v>0</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="200">
         <v>0</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="155">
+      <c r="J50" s="201">
         <v>11</v>
       </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18" t="s">
+      <c r="K50" s="202"/>
+      <c r="L50" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M50" s="163" t="s">
+      <c r="M50" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29502,38 +29506,38 @@
       <c r="A51" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="189" t="s">
         <v>593</v>
       </c>
-      <c r="C51" s="157" t="s">
+      <c r="C51" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="197">
+      <c r="D51" s="198">
         <v>0.05</v>
       </c>
-      <c r="E51" s="198">
+      <c r="E51" s="199">
         <v>69.489999999999995</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="200">
         <v>0</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="200">
         <v>0</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="155">
+      <c r="J51" s="201">
         <v>11</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18" t="s">
+      <c r="K51" s="202"/>
+      <c r="L51" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M51" s="163" t="s">
+      <c r="M51" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29541,38 +29545,38 @@
       <c r="A52" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="189" t="s">
         <v>594</v>
       </c>
-      <c r="C52" s="157" t="s">
+      <c r="C52" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="197">
+      <c r="D52" s="198">
         <v>0.04</v>
       </c>
-      <c r="E52" s="198">
+      <c r="E52" s="199">
         <v>39.06</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="200">
         <v>0</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="200">
         <v>0</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="155">
+      <c r="J52" s="201">
         <v>11</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18" t="s">
+      <c r="K52" s="202"/>
+      <c r="L52" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M52" s="163" t="s">
+      <c r="M52" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29580,38 +29584,38 @@
       <c r="A53" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B53" s="193" t="s">
+      <c r="B53" s="189" t="s">
         <v>595</v>
       </c>
-      <c r="C53" s="157" t="s">
+      <c r="C53" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="197">
+      <c r="D53" s="198">
         <v>0.04</v>
       </c>
-      <c r="E53" s="198">
+      <c r="E53" s="199">
         <v>39.06</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="200">
         <v>0</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="200">
         <v>0</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="I53" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="155">
+      <c r="J53" s="201">
         <v>11</v>
       </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18" t="s">
+      <c r="K53" s="202"/>
+      <c r="L53" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M53" s="163" t="s">
+      <c r="M53" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29619,38 +29623,38 @@
       <c r="A54" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="190" t="s">
         <v>596</v>
       </c>
-      <c r="C54" s="157" t="s">
+      <c r="C54" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="197">
+      <c r="D54" s="198">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E54" s="198">
+      <c r="E54" s="199">
         <v>50.48</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="200">
         <v>0</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="200">
         <v>0</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="155">
+      <c r="J54" s="201">
         <v>11</v>
       </c>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18" t="s">
+      <c r="K54" s="202"/>
+      <c r="L54" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M54" s="163" t="s">
+      <c r="M54" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29658,38 +29662,38 @@
       <c r="A55" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B55" s="194" t="s">
+      <c r="B55" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C55" s="157" t="s">
+      <c r="C55" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="197">
+      <c r="D55" s="198">
         <v>1.1950000000000001</v>
       </c>
-      <c r="E55" s="198">
+      <c r="E55" s="199">
         <v>84.63</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="200">
         <v>0</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="200">
         <v>0</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="155">
+      <c r="J55" s="201">
         <v>11</v>
       </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18" t="s">
+      <c r="K55" s="202"/>
+      <c r="L55" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M55" s="163" t="s">
+      <c r="M55" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29697,38 +29701,38 @@
       <c r="A56" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B56" s="194" t="s">
+      <c r="B56" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C56" s="157" t="s">
+      <c r="C56" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="197">
+      <c r="D56" s="198">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E56" s="198">
+      <c r="E56" s="199">
         <v>83.54</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="200">
         <v>0</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="200">
         <v>0</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="155">
+      <c r="J56" s="201">
         <v>11</v>
       </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18" t="s">
+      <c r="K56" s="202"/>
+      <c r="L56" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M56" s="163" t="s">
+      <c r="M56" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29736,38 +29740,38 @@
       <c r="A57" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B57" s="195" t="s">
+      <c r="B57" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="197">
+      <c r="D57" s="198">
         <v>0.85</v>
       </c>
-      <c r="E57" s="198">
+      <c r="E57" s="199">
         <v>10.64</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="200">
         <v>0</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="200">
         <v>0</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="155">
+      <c r="J57" s="201">
         <v>11</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="18" t="s">
+      <c r="K57" s="202"/>
+      <c r="L57" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M57" s="163" t="s">
+      <c r="M57" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29775,38 +29779,38 @@
       <c r="A58" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B58" s="195" t="s">
+      <c r="B58" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="197">
+      <c r="D58" s="198">
         <v>3.85</v>
       </c>
-      <c r="E58" s="198">
+      <c r="E58" s="199">
         <v>47.95</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="200">
         <v>0</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="200">
         <v>0</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="155">
+      <c r="J58" s="201">
         <v>11</v>
       </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="18" t="s">
+      <c r="K58" s="202"/>
+      <c r="L58" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M58" s="163" t="s">
+      <c r="M58" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29814,38 +29818,38 @@
       <c r="A59" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B59" s="196" t="s">
+      <c r="B59" s="192" t="s">
         <v>599</v>
       </c>
-      <c r="C59" s="157" t="s">
+      <c r="C59" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="197">
+      <c r="D59" s="198">
         <v>0.03</v>
       </c>
-      <c r="E59" s="198">
+      <c r="E59" s="199">
         <v>246.39</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="200">
         <v>0</v>
       </c>
-      <c r="G59" s="18">
-        <v>1</v>
-      </c>
-      <c r="H59" s="18" t="s">
+      <c r="G59" s="200">
+        <v>1</v>
+      </c>
+      <c r="H59" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I59" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="155">
+      <c r="J59" s="201">
         <v>11</v>
       </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="18" t="s">
+      <c r="K59" s="202"/>
+      <c r="L59" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M59" s="163" t="s">
+      <c r="M59" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29853,38 +29857,38 @@
       <c r="A60" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B60" s="196" t="s">
+      <c r="B60" s="192" t="s">
         <v>600</v>
       </c>
-      <c r="C60" s="157" t="s">
+      <c r="C60" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="197">
+      <c r="D60" s="198">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E60" s="198">
+      <c r="E60" s="199">
         <v>152.31</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="200">
         <v>0</v>
       </c>
-      <c r="G60" s="18">
-        <v>1</v>
-      </c>
-      <c r="H60" s="18" t="s">
+      <c r="G60" s="200">
+        <v>1</v>
+      </c>
+      <c r="H60" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J60" s="155">
+      <c r="J60" s="201">
         <v>11</v>
       </c>
-      <c r="K60" s="17"/>
-      <c r="L60" s="18" t="s">
+      <c r="K60" s="202"/>
+      <c r="L60" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M60" s="163" t="s">
+      <c r="M60" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29892,38 +29896,38 @@
       <c r="A61" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B61" s="196" t="s">
+      <c r="B61" s="192" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="157" t="s">
+      <c r="C61" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="197">
+      <c r="D61" s="198">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E61" s="198">
+      <c r="E61" s="199">
         <v>138.18</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="200">
         <v>0</v>
       </c>
-      <c r="G61" s="18">
-        <v>1</v>
-      </c>
-      <c r="H61" s="18" t="s">
+      <c r="G61" s="200">
+        <v>1</v>
+      </c>
+      <c r="H61" s="200" t="s">
         <v>581</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="155">
+      <c r="J61" s="201">
         <v>11</v>
       </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="18" t="s">
+      <c r="K61" s="202"/>
+      <c r="L61" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="M61" s="163" t="s">
+      <c r="M61" s="61" t="s">
         <v>304</v>
       </c>
     </row>
@@ -29970,7 +29974,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="19" fitToHeight="10" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="61" max="13" man="1"/>
+    <brk id="63" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -31826,12 +31830,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
       <c r="E43" s="16"/>
       <c r="F43" s="135">
         <f>SUM(F2:F42)</f>

--- a/Civilworks cost/RADP Preparations/Sunamgonj/Revised With Appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Revised With Appendix/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="15" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Netrokona!$A$1:$O$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Structure_Type!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Sunamgonj!$A$1:$N$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Sunamgonj!$A$1:$N$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Sunamgonj_Categorical_Projectio!$A$1:$Q$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Habiganj_Categorical_Projection!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Hobiganj!$1:$1</definedName>
@@ -2757,6 +2757,19 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2769,22 +2782,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2955,6 +2955,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3095,6 +3096,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3235,6 +3237,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3375,6 +3378,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3515,6 +3519,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3655,6 +3660,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8851,15 +8857,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9583,21 +9589,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -10103,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="28" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="104">
         <v>11</v>
       </c>
@@ -10240,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="104">
         <v>14</v>
       </c>
@@ -10659,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="28" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="28" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="104">
         <v>21</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="104">
         <v>40</v>
       </c>
@@ -11526,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="104">
         <v>42</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="104">
         <v>43</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="104">
         <v>44</v>
       </c>
@@ -11663,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="104">
         <v>45</v>
       </c>
@@ -11708,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="104">
         <v>46</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="121">
         <v>47</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="42"/>
@@ -11830,7 +11836,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="58"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="128"/>
@@ -11847,7 +11853,7 @@
       <c r="N50" s="86"/>
       <c r="O50" s="130"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="128"/>
@@ -11864,7 +11870,7 @@
       <c r="N51" s="86"/>
       <c r="O51" s="130"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="128"/>
@@ -11881,8 +11887,8 @@
       <c r="N52" s="86"/>
       <c r="O52" s="130"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="16"/>
       <c r="F54" s="131" t="s">
         <v>331</v>
@@ -11904,7 +11910,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="85" t="s">
         <v>117</v>
       </c>
@@ -11934,7 +11940,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="85" t="s">
         <v>128</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="85" t="s">
         <v>179</v>
       </c>
@@ -11994,7 +12000,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="85" t="s">
         <v>139</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="85" t="s">
         <v>150</v>
       </c>
@@ -12054,7 +12060,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="85" t="s">
         <v>169</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="88">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -12111,7 +12117,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="87"/>
       <c r="F62" s="86"/>
       <c r="G62" s="86"/>
@@ -12120,8 +12126,8 @@
       <c r="J62" s="86"/>
       <c r="K62" s="86"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -12146,22 +12152,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="64" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="64" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13827,7 +13833,7 @@
       <c r="P40" s="78"/>
       <c r="Q40" s="28"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="62">
         <v>45</v>
       </c>
@@ -13869,7 +13875,7 @@
       <c r="P41" s="75"/>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="62">
         <v>30</v>
       </c>
@@ -13913,7 +13919,7 @@
       </c>
       <c r="Q42" s="25"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="62">
         <v>33</v>
       </c>
@@ -13957,7 +13963,7 @@
       </c>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="62">
         <v>36</v>
       </c>
@@ -14001,7 +14007,7 @@
       </c>
       <c r="Q44" s="25"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="62">
         <v>39</v>
       </c>
@@ -14045,7 +14051,7 @@
       </c>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="62">
         <v>43</v>
       </c>
@@ -14089,7 +14095,7 @@
       </c>
       <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="62">
         <v>46</v>
       </c>
@@ -14131,7 +14137,7 @@
       <c r="P47" s="77"/>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="62">
         <v>47</v>
       </c>
@@ -14173,14 +14179,14 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="196" t="s">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+      <c r="A49" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
       <c r="F49" s="38">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -14208,7 +14214,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="80"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="85"/>
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
@@ -14226,7 +14232,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="80"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="85"/>
       <c r="B51" s="85"/>
       <c r="C51" s="85"/>
@@ -14518,12 +14524,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15100,13 +15106,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15302,21 +15308,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>314</v>
@@ -15379,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.15" customHeight="1">
+    <row r="4" spans="1:10" ht="13.2" customHeight="1">
       <c r="A4" s="163" t="s">
         <v>549</v>
       </c>
@@ -15595,10 +15601,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15866,14 +15872,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16192,20 +16198,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -16248,7 +16254,7 @@
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.65" customHeight="1">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.7" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
@@ -16464,7 +16470,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>126</v>
       </c>
@@ -17961,23 +17967,23 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="2" max="2" width="53" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -18269,7 +18275,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>500</v>
       </c>
@@ -19047,7 +19053,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="1:15" s="156" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="28" spans="1:15" s="156" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>482</v>
       </c>
@@ -19086,7 +19092,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" spans="1:15" s="156" customFormat="1" ht="34.15" customHeight="1">
+    <row r="29" spans="1:15" s="156" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>482</v>
       </c>
@@ -19671,7 +19677,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -19975,7 +19981,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1">
+    <row r="52" spans="1:13" ht="61.2" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>436</v>
       </c>
@@ -20012,7 +20018,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1">
+    <row r="53" spans="1:13" ht="58.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>436</v>
       </c>
@@ -20047,7 +20053,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>435</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.65" customHeight="1">
+    <row r="75" spans="1:13" ht="62.7" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>408</v>
       </c>
@@ -20933,7 +20939,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.15" customHeight="1">
+    <row r="78" spans="1:13" ht="49.2" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>408</v>
       </c>
@@ -20970,7 +20976,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="37.5">
+    <row r="79" spans="1:13" ht="36">
       <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
@@ -21044,7 +21050,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="37.5">
+    <row r="81" spans="1:13" ht="36">
       <c r="A81" s="8" t="s">
         <v>408</v>
       </c>
@@ -21077,7 +21083,7 @@
       </c>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="41.65" customHeight="1">
+    <row r="82" spans="1:13" ht="41.7" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>408</v>
       </c>
@@ -21149,7 +21155,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="36">
       <c r="A84" s="8" t="s">
         <v>503</v>
       </c>
@@ -21184,7 +21190,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.15" customHeight="1">
+    <row r="85" spans="1:13" ht="43.2" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>503</v>
       </c>
@@ -21219,7 +21225,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1">
+    <row r="86" spans="1:13" ht="43.2" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>503</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1">
+    <row r="87" spans="1:13" ht="43.2" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>503</v>
       </c>
@@ -21285,7 +21291,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>503</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>503</v>
       </c>
@@ -21355,7 +21361,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>503</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.65" customHeight="1">
+    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -21497,7 +21503,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.65" customHeight="1">
+    <row r="94" spans="1:13" ht="59.7" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>414</v>
       </c>
@@ -21534,7 +21540,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1">
+    <row r="95" spans="1:13" ht="59.7" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>379</v>
       </c>
@@ -21571,7 +21577,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1">
+    <row r="96" spans="1:13" ht="59.7" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>379</v>
       </c>
@@ -21608,7 +21614,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>379</v>
       </c>
@@ -21645,7 +21651,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>379</v>
       </c>
@@ -21682,7 +21688,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>379</v>
       </c>
@@ -21719,7 +21725,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>379</v>
       </c>
@@ -21756,7 +21762,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="37.5">
+    <row r="101" spans="1:13" ht="36">
       <c r="A101" s="8" t="s">
         <v>379</v>
       </c>
@@ -21793,7 +21799,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5">
+    <row r="102" spans="1:13" ht="36">
       <c r="A102" s="8" t="s">
         <v>379</v>
       </c>
@@ -21830,7 +21836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5">
+    <row r="103" spans="1:13" ht="36">
       <c r="A103" s="8" t="s">
         <v>379</v>
       </c>
@@ -21867,7 +21873,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>519</v>
       </c>
@@ -21906,7 +21912,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>519</v>
       </c>
@@ -21945,7 +21951,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="56.25">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>519</v>
       </c>
@@ -21984,7 +21990,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>519</v>
       </c>
@@ -22060,7 +22066,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="37.5">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>403</v>
       </c>
@@ -22097,7 +22103,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5">
+    <row r="110" spans="1:13" ht="36">
       <c r="A110" s="8" t="s">
         <v>403</v>
       </c>
@@ -22134,7 +22140,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="37.5">
+    <row r="111" spans="1:13" ht="36">
       <c r="A111" s="8" t="s">
         <v>403</v>
       </c>
@@ -22171,7 +22177,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5">
+    <row r="112" spans="1:13" ht="36">
       <c r="A112" s="8" t="s">
         <v>403</v>
       </c>
@@ -22208,7 +22214,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5">
+    <row r="113" spans="1:13" ht="36">
       <c r="A113" s="8" t="s">
         <v>403</v>
       </c>
@@ -22245,7 +22251,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5">
+    <row r="114" spans="1:13" ht="36">
       <c r="A114" s="8" t="s">
         <v>403</v>
       </c>
@@ -22282,7 +22288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5">
+    <row r="115" spans="1:13" ht="36">
       <c r="A115" s="8" t="s">
         <v>403</v>
       </c>
@@ -22356,7 +22362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5">
+    <row r="117" spans="1:13" ht="36">
       <c r="A117" s="8" t="s">
         <v>403</v>
       </c>
@@ -22393,7 +22399,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="36">
       <c r="A118" s="8" t="s">
         <v>403</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="37.5">
+    <row r="119" spans="1:13" ht="36">
       <c r="A119" s="8" t="s">
         <v>403</v>
       </c>
@@ -22467,7 +22473,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5">
+    <row r="120" spans="1:13" ht="36">
       <c r="A120" s="8" t="s">
         <v>403</v>
       </c>
@@ -22541,7 +22547,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>350</v>
       </c>
@@ -22580,7 +22586,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="36">
       <c r="A123" s="8" t="s">
         <v>350</v>
       </c>
@@ -22619,7 +22625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5">
+    <row r="124" spans="1:13" ht="36">
       <c r="A124" s="8" t="s">
         <v>350</v>
       </c>
@@ -22658,7 +22664,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
@@ -22697,7 +22703,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -22736,7 +22742,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>350</v>
       </c>
@@ -22775,7 +22781,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5">
+    <row r="128" spans="1:13" ht="36">
       <c r="A128" s="8" t="s">
         <v>350</v>
       </c>
@@ -22814,7 +22820,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5">
+    <row r="129" spans="1:14" ht="36">
       <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
@@ -22853,7 +22859,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5">
+    <row r="130" spans="1:14" ht="36">
       <c r="A130" s="8" t="s">
         <v>374</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5">
+    <row r="131" spans="1:14" ht="36">
       <c r="A131" s="8" t="s">
         <v>374</v>
       </c>
@@ -22931,7 +22937,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5">
+    <row r="132" spans="1:14" ht="36">
       <c r="A132" s="8" t="s">
         <v>374</v>
       </c>
@@ -22970,7 +22976,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5">
+    <row r="133" spans="1:14" ht="36">
       <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
@@ -23009,7 +23015,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5">
+    <row r="134" spans="1:14" ht="36">
       <c r="A134" s="8" t="s">
         <v>374</v>
       </c>
@@ -23048,7 +23054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5">
+    <row r="135" spans="1:14" ht="36">
       <c r="A135" s="8" t="s">
         <v>374</v>
       </c>
@@ -23087,7 +23093,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5">
+    <row r="136" spans="1:14" ht="36">
       <c r="A136" s="8" t="s">
         <v>374</v>
       </c>
@@ -23126,7 +23132,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5">
+    <row r="137" spans="1:14" ht="36">
       <c r="A137" s="8" t="s">
         <v>374</v>
       </c>
@@ -23165,7 +23171,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5">
+    <row r="138" spans="1:14" ht="36">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -23204,7 +23210,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5">
+    <row r="139" spans="1:14" ht="36">
       <c r="A139" s="8" t="s">
         <v>369</v>
       </c>
@@ -23243,7 +23249,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5">
+    <row r="140" spans="1:14" ht="36">
       <c r="A140" s="8" t="s">
         <v>369</v>
       </c>
@@ -23282,7 +23288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5">
+    <row r="141" spans="1:14" ht="36">
       <c r="A141" s="8" t="s">
         <v>369</v>
       </c>
@@ -23321,7 +23327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5">
+    <row r="142" spans="1:14" ht="36">
       <c r="A142" s="68" t="s">
         <v>369</v>
       </c>
@@ -23400,7 +23406,7 @@
       </c>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="144" spans="1:14" ht="35.4" customHeight="1">
       <c r="A144" s="68" t="s">
         <v>565</v>
       </c>
@@ -23440,7 +23446,7 @@
       </c>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" ht="22.9" customHeight="1">
+    <row r="145" spans="1:14" ht="22.95" customHeight="1">
       <c r="A145" s="68" t="s">
         <v>565</v>
       </c>
@@ -23480,7 +23486,7 @@
       </c>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1">
+    <row r="146" spans="1:14" ht="22.95" customHeight="1">
       <c r="A146" s="68" t="s">
         <v>565</v>
       </c>
@@ -23520,7 +23526,7 @@
       </c>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1">
+    <row r="147" spans="1:14" ht="22.95" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>565</v>
       </c>
@@ -23560,7 +23566,7 @@
       </c>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="1:14" ht="14.45" customHeight="1">
+    <row r="148" spans="1:14" ht="14.4" customHeight="1">
       <c r="B148" s="179"/>
     </row>
   </sheetData>
@@ -23587,20 +23593,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -25445,13 +25451,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -25494,25 +25500,25 @@
       <selection activeCell="A2" sqref="A2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="17" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.4" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27481,27 +27487,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:M61"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="48.75" customHeight="1">
@@ -29440,7 +29446,7 @@
       <c r="E49" s="18">
         <v>347.64</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="18">
         <v>0.17</v>
       </c>
       <c r="G49" s="18">
@@ -29470,32 +29476,32 @@
       <c r="B50" s="189" t="s">
         <v>592</v>
       </c>
-      <c r="C50" s="197" t="s">
+      <c r="C50" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="198">
+      <c r="D50" s="194">
         <v>0.24</v>
       </c>
-      <c r="E50" s="199">
+      <c r="E50" s="202">
         <v>335.53</v>
       </c>
-      <c r="F50" s="200">
+      <c r="F50" s="195">
         <v>0</v>
       </c>
-      <c r="G50" s="200">
+      <c r="G50" s="195">
         <v>0</v>
       </c>
-      <c r="H50" s="200" t="s">
+      <c r="H50" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I50" s="200" t="s">
+      <c r="I50" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="201">
+      <c r="J50" s="196">
         <v>11</v>
       </c>
-      <c r="K50" s="202"/>
-      <c r="L50" s="200" t="s">
+      <c r="K50" s="197"/>
+      <c r="L50" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M50" s="61" t="s">
@@ -29509,32 +29515,32 @@
       <c r="B51" s="189" t="s">
         <v>593</v>
       </c>
-      <c r="C51" s="197" t="s">
+      <c r="C51" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="198">
+      <c r="D51" s="194">
         <v>0.05</v>
       </c>
-      <c r="E51" s="199">
+      <c r="E51" s="202">
         <v>69.489999999999995</v>
       </c>
-      <c r="F51" s="200">
+      <c r="F51" s="195">
         <v>0</v>
       </c>
-      <c r="G51" s="200">
+      <c r="G51" s="195">
         <v>0</v>
       </c>
-      <c r="H51" s="200" t="s">
+      <c r="H51" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I51" s="200" t="s">
+      <c r="I51" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="201">
+      <c r="J51" s="196">
         <v>11</v>
       </c>
-      <c r="K51" s="202"/>
-      <c r="L51" s="200" t="s">
+      <c r="K51" s="197"/>
+      <c r="L51" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M51" s="61" t="s">
@@ -29548,397 +29554,400 @@
       <c r="B52" s="189" t="s">
         <v>594</v>
       </c>
-      <c r="C52" s="197" t="s">
+      <c r="C52" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="198">
+      <c r="D52" s="194">
         <v>0.04</v>
       </c>
-      <c r="E52" s="199">
+      <c r="E52" s="202">
         <v>39.06</v>
       </c>
-      <c r="F52" s="200">
+      <c r="F52" s="195">
         <v>0</v>
       </c>
-      <c r="G52" s="200">
+      <c r="G52" s="195">
         <v>0</v>
       </c>
-      <c r="H52" s="200" t="s">
+      <c r="H52" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I52" s="200" t="s">
+      <c r="I52" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="201">
+      <c r="J52" s="196">
         <v>11</v>
       </c>
-      <c r="K52" s="202"/>
-      <c r="L52" s="200" t="s">
+      <c r="K52" s="197"/>
+      <c r="L52" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M52" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="37.5">
+    <row r="53" spans="1:13" ht="36">
       <c r="A53" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B53" s="189" t="s">
         <v>595</v>
       </c>
-      <c r="C53" s="197" t="s">
+      <c r="C53" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="198">
+      <c r="D53" s="194">
         <v>0.04</v>
       </c>
-      <c r="E53" s="199">
+      <c r="E53" s="202">
         <v>39.06</v>
       </c>
-      <c r="F53" s="200">
+      <c r="F53" s="195">
         <v>0</v>
       </c>
-      <c r="G53" s="200">
+      <c r="G53" s="195">
         <v>0</v>
       </c>
-      <c r="H53" s="200" t="s">
+      <c r="H53" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I53" s="200" t="s">
+      <c r="I53" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="201">
+      <c r="J53" s="196">
         <v>11</v>
       </c>
-      <c r="K53" s="202"/>
-      <c r="L53" s="200" t="s">
+      <c r="K53" s="197"/>
+      <c r="L53" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M53" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="37.5">
+    <row r="54" spans="1:13" ht="36">
       <c r="A54" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B54" s="190" t="s">
         <v>596</v>
       </c>
-      <c r="C54" s="197" t="s">
+      <c r="C54" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="198">
+      <c r="D54" s="194">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E54" s="199">
+      <c r="E54" s="202">
         <v>50.48</v>
       </c>
-      <c r="F54" s="200">
+      <c r="F54" s="195">
         <v>0</v>
       </c>
-      <c r="G54" s="200">
+      <c r="G54" s="195">
         <v>0</v>
       </c>
-      <c r="H54" s="200" t="s">
+      <c r="H54" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I54" s="200" t="s">
+      <c r="I54" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="201">
+      <c r="J54" s="196">
         <v>11</v>
       </c>
-      <c r="K54" s="202"/>
-      <c r="L54" s="200" t="s">
+      <c r="K54" s="197"/>
+      <c r="L54" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M54" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="37.5">
+    <row r="55" spans="1:13" ht="36">
       <c r="A55" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B55" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C55" s="197" t="s">
+      <c r="C55" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="198">
+      <c r="D55" s="194">
         <v>1.1950000000000001</v>
       </c>
-      <c r="E55" s="199">
+      <c r="E55" s="202">
         <v>84.63</v>
       </c>
-      <c r="F55" s="200">
+      <c r="F55" s="195">
         <v>0</v>
       </c>
-      <c r="G55" s="200">
+      <c r="G55" s="195">
         <v>0</v>
       </c>
-      <c r="H55" s="200" t="s">
+      <c r="H55" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I55" s="200" t="s">
+      <c r="I55" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="201">
+      <c r="J55" s="196">
         <v>11</v>
       </c>
-      <c r="K55" s="202"/>
-      <c r="L55" s="200" t="s">
+      <c r="K55" s="197"/>
+      <c r="L55" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M55" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="37.5">
+    <row r="56" spans="1:13" ht="36">
       <c r="A56" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B56" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C56" s="197" t="s">
+      <c r="C56" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="198">
+      <c r="D56" s="194">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E56" s="199">
+      <c r="E56" s="202">
         <v>83.54</v>
       </c>
-      <c r="F56" s="200">
+      <c r="F56" s="195">
         <v>0</v>
       </c>
-      <c r="G56" s="200">
+      <c r="G56" s="195">
         <v>0</v>
       </c>
-      <c r="H56" s="200" t="s">
+      <c r="H56" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I56" s="200" t="s">
+      <c r="I56" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="201">
+      <c r="J56" s="196">
         <v>11</v>
       </c>
-      <c r="K56" s="202"/>
-      <c r="L56" s="200" t="s">
+      <c r="K56" s="197"/>
+      <c r="L56" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M56" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="37.5">
+    <row r="57" spans="1:13" ht="36">
       <c r="A57" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B57" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C57" s="197" t="s">
+      <c r="C57" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="198">
+      <c r="D57" s="194">
         <v>0.85</v>
       </c>
-      <c r="E57" s="199">
+      <c r="E57" s="202">
         <v>10.64</v>
       </c>
-      <c r="F57" s="200">
+      <c r="F57" s="195">
         <v>0</v>
       </c>
-      <c r="G57" s="200">
+      <c r="G57" s="195">
         <v>0</v>
       </c>
-      <c r="H57" s="200" t="s">
+      <c r="H57" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I57" s="200" t="s">
+      <c r="I57" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="201">
+      <c r="J57" s="196">
         <v>11</v>
       </c>
-      <c r="K57" s="202"/>
-      <c r="L57" s="200" t="s">
+      <c r="K57" s="197"/>
+      <c r="L57" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M57" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="37.5">
+    <row r="58" spans="1:13" ht="36">
       <c r="A58" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B58" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C58" s="197" t="s">
+      <c r="C58" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="198">
+      <c r="D58" s="194">
         <v>3.85</v>
       </c>
-      <c r="E58" s="199">
+      <c r="E58" s="202">
         <v>47.95</v>
       </c>
-      <c r="F58" s="200">
+      <c r="F58" s="195">
         <v>0</v>
       </c>
-      <c r="G58" s="200">
+      <c r="G58" s="195">
         <v>0</v>
       </c>
-      <c r="H58" s="200" t="s">
+      <c r="H58" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I58" s="200" t="s">
+      <c r="I58" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="201">
+      <c r="J58" s="196">
         <v>11</v>
       </c>
-      <c r="K58" s="202"/>
-      <c r="L58" s="200" t="s">
+      <c r="K58" s="197"/>
+      <c r="L58" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M58" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="37.5">
+    <row r="59" spans="1:13" ht="36">
       <c r="A59" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B59" s="192" t="s">
         <v>599</v>
       </c>
-      <c r="C59" s="197" t="s">
+      <c r="C59" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="198">
+      <c r="D59" s="194">
         <v>0.03</v>
       </c>
-      <c r="E59" s="199">
+      <c r="E59" s="202">
         <v>246.39</v>
       </c>
-      <c r="F59" s="200">
+      <c r="F59" s="195">
         <v>0</v>
       </c>
-      <c r="G59" s="200">
-        <v>1</v>
-      </c>
-      <c r="H59" s="200" t="s">
+      <c r="G59" s="195">
+        <v>1</v>
+      </c>
+      <c r="H59" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I59" s="200" t="s">
+      <c r="I59" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="201">
+      <c r="J59" s="196">
         <v>11</v>
       </c>
-      <c r="K59" s="202"/>
-      <c r="L59" s="200" t="s">
+      <c r="K59" s="197"/>
+      <c r="L59" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M59" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="37.5">
+    <row r="60" spans="1:13" ht="36">
       <c r="A60" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B60" s="192" t="s">
         <v>600</v>
       </c>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="198">
+      <c r="D60" s="194">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E60" s="199">
+      <c r="E60" s="202">
         <v>152.31</v>
       </c>
-      <c r="F60" s="200">
+      <c r="F60" s="195">
         <v>0</v>
       </c>
-      <c r="G60" s="200">
-        <v>1</v>
-      </c>
-      <c r="H60" s="200" t="s">
+      <c r="G60" s="195">
+        <v>1</v>
+      </c>
+      <c r="H60" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I60" s="200" t="s">
+      <c r="I60" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J60" s="201">
+      <c r="J60" s="196">
         <v>11</v>
       </c>
-      <c r="K60" s="202"/>
-      <c r="L60" s="200" t="s">
+      <c r="K60" s="197"/>
+      <c r="L60" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M60" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="37.5">
+    <row r="61" spans="1:13" ht="36">
       <c r="A61" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B61" s="192" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="197" t="s">
+      <c r="C61" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="198">
+      <c r="D61" s="194">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E61" s="199">
+      <c r="E61" s="202">
         <v>138.18</v>
       </c>
-      <c r="F61" s="200">
+      <c r="F61" s="195">
         <v>0</v>
       </c>
-      <c r="G61" s="200">
-        <v>1</v>
-      </c>
-      <c r="H61" s="200" t="s">
+      <c r="G61" s="195">
+        <v>1</v>
+      </c>
+      <c r="H61" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I61" s="200" t="s">
+      <c r="I61" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="201">
+      <c r="J61" s="196">
         <v>11</v>
       </c>
-      <c r="K61" s="202"/>
-      <c r="L61" s="200" t="s">
+      <c r="K61" s="197"/>
+      <c r="L61" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M61" s="61" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="20"/>
+    </row>
     <row r="64" spans="1:13">
       <c r="B64" s="20"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="20"/>
+      <c r="B65" s="94"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="94"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="20"/>
@@ -29962,10 +29971,7 @@
       <c r="B73" s="20"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="64"/>
+      <c r="B74" s="64"/>
     </row>
   </sheetData>
   <sortState ref="A2:L48">
@@ -29974,7 +29980,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="19" fitToHeight="10" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="63" max="13" man="1"/>
+    <brk id="61" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -29987,23 +29993,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="138" customWidth="1"/>
     <col min="7" max="7" width="16" style="138" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="141" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="138" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="141" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="138" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="141" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="138" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="141" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="138" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -31830,12 +31836,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="196"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="16"/>
       <c r="F43" s="135">
         <f>SUM(F2:F42)</f>
@@ -32013,7 +32019,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="143"/>
       <c r="E49" s="127" t="s">
         <v>40</v>
@@ -32115,7 +32121,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="127" t="s">
         <v>74</v>
       </c>
@@ -32148,7 +32154,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="127" t="s">
         <v>92</v>
       </c>
